--- a/data/evaluation/evaluation_South_Summer_Celery.xlsx
+++ b/data/evaluation/evaluation_South_Summer_Celery.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2725.566666666667</v>
+        <v>2762.366666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>13575275.88333333</v>
+        <v>14076050.28333333</v>
       </c>
       <c r="D3" t="n">
-        <v>3684.464124310798</v>
+        <v>3751.806269429877</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.335882571131269</v>
+        <v>-1.422050263271128</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2035.377887001887</v>
+        <v>1979.658654900655</v>
       </c>
       <c r="C4" t="n">
-        <v>6492564.59519425</v>
+        <v>6122218.962980045</v>
       </c>
       <c r="D4" t="n">
-        <v>2548.051136691383</v>
+        <v>2474.311816036945</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1171683441422848</v>
+        <v>-0.05344338451580422</v>
       </c>
     </row>
     <row r="5">
